--- a/STS IR Bot Performer/Data/Output/SC ST 389 tool osv1.xlsx
+++ b/STS IR Bot Performer/Data/Output/SC ST 389 tool osv1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin.martinez\Documents\github-IRBot\STS_InternalReviewBot\STS IR Bot Performer\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C5D39C-6F0D-4AC7-9562-44C8864E2F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BEF6AA-3C20-4316-B585-1E065B8288BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3495" windowWidth="14400" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SC ST-389 tool" sheetId="1" r:id="rId1"/>

--- a/STS IR Bot Performer/Data/Output/SC ST 389 tool osv1.xlsx
+++ b/STS IR Bot Performer/Data/Output/SC ST 389 tool osv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin.martinez\Documents\github-IRBot\STS_InternalReviewBot\STS IR Bot Performer\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BEF6AA-3C20-4316-B585-1E065B8288BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9251916-CDB1-46AE-BE85-10FE2D382D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SC ST-389 tool" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
   <si>
     <t>LOCAL OPTION</t>
   </si>
@@ -64,6 +64,9 @@
     <t>DIF</t>
   </si>
   <si>
+    <t xml:space="preserve">Charleston County </t>
+  </si>
+  <si>
     <t xml:space="preserve">North Charleston (Charleston County) </t>
   </si>
   <si>
@@ -337,39 +340,39 @@
     <t>To add more lines to this schedule  press CTRL+Q.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sumter (Sumter County) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easley (Pickens County) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mount Pleasant (Charleston County) </t>
+    <t xml:space="preserve">Clemson (Pickens County) </t>
   </si>
   <si>
     <t xml:space="preserve">Florence (Florence County) </t>
   </si>
   <si>
-    <t xml:space="preserve">Darlington County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dillon County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurens County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union County </t>
+    <t xml:space="preserve">Hanahan (Berkeley County) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mccormick County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batesburg (Saluda County) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartsville (Darlington County) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgefield (Edgefield County) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardeeville (Jasper County) </t>
   </si>
   <si>
     <t xml:space="preserve">Camden (Kershaw County) </t>
   </si>
   <si>
+    <t xml:space="preserve">Pickens (Pickens County) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Arcadia Lakes (Richland County) </t>
   </si>
   <si>
-    <t xml:space="preserve">Forest Acres (Richland County) </t>
-  </si>
-  <si>
     <t>County Name</t>
   </si>
   <si>
@@ -454,7 +457,7 @@
     <t>WILLIAMSBURG</t>
   </si>
   <si>
-    <t>AMERICANCHURCH  INC.</t>
+    <t>OUR SUNDAY VISITOR  INC.</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -1397,14 +1400,14 @@
       </c>
       <c r="B2">
         <f>detail!D6</f>
-        <v>527</v>
+        <v>1261</v>
       </c>
       <c r="C2">
         <f>detail!J6</f>
-        <v>5.27</v>
+        <v>12.61</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1426,18 +1429,18 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>detail!B7</f>
-        <v xml:space="preserve">Mount Pleasant (Charleston County) </v>
+        <v xml:space="preserve">Hanahan (Berkeley County) </v>
       </c>
       <c r="B3">
         <f>detail!D7</f>
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>detail!J7</f>
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -1459,18 +1462,18 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>detail!B8</f>
-        <v xml:space="preserve">North Charleston (Charleston County) </v>
+        <v xml:space="preserve">Charleston County </v>
       </c>
       <c r="B4">
         <f>detail!D8</f>
-        <v>121</v>
+        <v>1774</v>
       </c>
       <c r="C4">
         <f>detail!J8</f>
-        <v>1.21</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -1492,30 +1495,30 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>detail!B9</f>
-        <v xml:space="preserve">Darlington County </v>
+        <v xml:space="preserve">North Charleston (Charleston County) </v>
       </c>
       <c r="B5">
         <f>detail!D9</f>
-        <v>90</v>
+        <v>441</v>
       </c>
       <c r="C5">
         <f>detail!J9</f>
-        <v>0.9</v>
+        <v>4.41</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1">
-        <v>527</v>
+        <v>1261</v>
       </c>
       <c r="H5" s="1">
-        <v>5.27</v>
+        <v>12.61</v>
       </c>
       <c r="I5" s="3">
-        <v>527</v>
+        <v>1261</v>
       </c>
       <c r="J5" s="1">
-        <v>5.27</v>
+        <v>12.61</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -1525,18 +1528,18 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>detail!B10</f>
-        <v xml:space="preserve">Dillon County </v>
+        <v xml:space="preserve">Hartsville (Darlington County) </v>
       </c>
       <c r="B6">
         <f>detail!D10</f>
-        <v>420</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <f>detail!J10</f>
-        <v>4.2</v>
+        <v>1.35</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1558,30 +1561,30 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>detail!B11</f>
-        <v xml:space="preserve">Florence (Florence County) </v>
+        <v xml:space="preserve">Edgefield (Edgefield County) </v>
       </c>
       <c r="B7">
         <f>detail!D11</f>
-        <v>466</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <f>detail!J11</f>
-        <v>4.66</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G7" s="1">
-        <v>280</v>
+        <v>2215</v>
       </c>
       <c r="H7" s="1">
-        <v>2.8</v>
+        <v>22.15</v>
       </c>
       <c r="I7" s="3">
-        <v>280</v>
+        <v>2215</v>
       </c>
       <c r="J7" s="1">
-        <v>2.8</v>
+        <v>22.15</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -1591,7 +1594,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>detail!B12</f>
-        <v xml:space="preserve">Camden (Kershaw County) </v>
+        <v xml:space="preserve">Florence (Florence County) </v>
       </c>
       <c r="B8">
         <f>detail!D12</f>
@@ -1602,7 +1605,7 @@
         <v>1.45</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -1624,18 +1627,18 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>detail!B13</f>
-        <v xml:space="preserve">Lancaster County </v>
+        <v xml:space="preserve">Hardeeville (Jasper County) </v>
       </c>
       <c r="B9">
         <f>detail!D13</f>
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="C9">
         <f>detail!J13</f>
-        <v>0.36</v>
+        <v>2.77</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1657,18 +1660,18 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>detail!B14</f>
-        <v xml:space="preserve">Laurens County </v>
+        <v xml:space="preserve">Camden (Kershaw County) </v>
       </c>
       <c r="B10">
         <f>detail!D14</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <f>detail!J14</f>
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1690,18 +1693,18 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>detail!B15</f>
-        <v xml:space="preserve">Easley (Pickens County) </v>
+        <v xml:space="preserve">Lancaster County </v>
       </c>
       <c r="B11">
         <f>detail!D15</f>
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="C11">
         <f>detail!J15</f>
-        <v>5.38</v>
+        <v>6.07</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1723,18 +1726,18 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>detail!B16</f>
-        <v xml:space="preserve">Arcadia Lakes (Richland County) </v>
+        <v xml:space="preserve">Mccormick County </v>
       </c>
       <c r="B12">
         <f>detail!D16</f>
-        <v>494</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <f>detail!J16</f>
-        <v>4.9400000000000004</v>
+        <v>1.05</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1756,30 +1759,30 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>detail!B17</f>
-        <v xml:space="preserve">Columbia (Richland County) </v>
+        <v xml:space="preserve">Clemson (Pickens County) </v>
       </c>
       <c r="B13">
         <f>detail!D17</f>
-        <v>566</v>
+        <v>118</v>
       </c>
       <c r="C13">
         <f>detail!J17</f>
-        <v>5.66</v>
+        <v>1.18</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G13" s="1">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="H13" s="1">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="I13" s="3">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="J13" s="1">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -1789,30 +1792,30 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>detail!B18</f>
-        <v xml:space="preserve">Forest Acres (Richland County) </v>
+        <v xml:space="preserve">Pickens (Pickens County) </v>
       </c>
       <c r="B14">
         <f>detail!D18</f>
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C14">
         <f>detail!J18</f>
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G14" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -1822,30 +1825,30 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>detail!B19</f>
-        <v xml:space="preserve">Sumter (Sumter County) </v>
+        <v xml:space="preserve">Arcadia Lakes (Richland County) </v>
       </c>
       <c r="B15">
         <f>detail!D19</f>
-        <v>599</v>
+        <v>190</v>
       </c>
       <c r="C15">
         <f>detail!J19</f>
-        <v>5.99</v>
+        <v>1.9</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1855,30 +1858,30 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>detail!B20</f>
-        <v xml:space="preserve">Union County </v>
+        <v xml:space="preserve">Columbia (Richland County) </v>
       </c>
       <c r="B16">
         <f>detail!D20</f>
-        <v>123</v>
+        <v>692</v>
       </c>
       <c r="C16">
         <f>detail!J20</f>
-        <v>1.23</v>
+        <v>6.92</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G16" s="1">
-        <v>466</v>
+        <v>145</v>
       </c>
       <c r="H16" s="1">
-        <v>4.66</v>
+        <v>1.45</v>
       </c>
       <c r="I16" s="3">
-        <v>466</v>
+        <v>145</v>
       </c>
       <c r="J16" s="1">
-        <v>4.66</v>
+        <v>1.45</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1886,32 +1889,32 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" t="str">
         <f>detail!B21</f>
-        <v>0</v>
+        <v xml:space="preserve">Batesburg (Saluda County) </v>
       </c>
       <c r="B17">
         <f>detail!D21</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <f>detail!J21</f>
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1932,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G18" s="1">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="H18" s="1">
-        <v>1.45</v>
+        <v>0.6</v>
       </c>
       <c r="I18" s="3">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1">
-        <v>1.45</v>
+        <v>0.6</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1965,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G19" s="1">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="H19" s="1">
-        <v>0.36</v>
+        <v>6.07</v>
       </c>
       <c r="I19" s="3">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="J19" s="1">
-        <v>0.36</v>
+        <v>6.07</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1998,19 +2001,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="1">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -2031,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -2064,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -2097,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -2130,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -2163,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G25" s="1">
-        <v>1218.0000000000002</v>
+        <v>882</v>
       </c>
       <c r="H25" s="1">
-        <v>12.180000000000001</v>
+        <v>8.82</v>
       </c>
       <c r="I25" s="2">
-        <v>1218</v>
+        <v>882</v>
       </c>
       <c r="J25" s="1">
-        <v>12.18</v>
+        <v>8.82</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -2196,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="K26" s="4">
         <v>0</v>
@@ -2229,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G27" s="1">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>5.99</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
@@ -2244,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="4">
-        <v>5.99</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -2262,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -4107,40 +4110,40 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>4495</v>
+        <v>5976</v>
       </c>
       <c r="E1">
         <v>0</v>
       </c>
       <c r="F1">
-        <v>4495</v>
+        <v>5976</v>
       </c>
       <c r="G1">
         <v>0</v>
       </c>
       <c r="H1">
-        <v>4495</v>
+        <v>5976</v>
       </c>
       <c r="J1">
-        <v>44.95</v>
+        <v>59.76</v>
       </c>
       <c r="K1">
         <v>0</v>
       </c>
       <c r="L1">
-        <v>44.95</v>
+        <v>59.76</v>
       </c>
       <c r="M1">
         <v>0</v>
       </c>
       <c r="N1">
-        <v>44.95</v>
+        <v>59.76</v>
       </c>
       <c r="O1">
         <v>0</v>
@@ -4149,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="Q1">
-        <v>44.95</v>
+        <v>59.76</v>
       </c>
       <c r="R1">
         <v>0</v>
@@ -4239,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="AU1">
-        <v>44.95</v>
+        <v>59.76</v>
       </c>
       <c r="AV1">
         <v>0</v>
@@ -4247,325 +4250,325 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>0.01</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="AV3" t="s">
         <v>22</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
       <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="AJ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV4" t="s">
         <v>51</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" t="s">
-        <v>61</v>
-      </c>
-      <c r="W4" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
         <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AN5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AR5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AS5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AT5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
@@ -4579,37 +4582,37 @@
         <v>1008</v>
       </c>
       <c r="D6">
-        <v>527</v>
+        <v>1261</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>527</v>
+        <v>1261</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>527</v>
+        <v>1261</v>
       </c>
       <c r="I6">
         <v>0.01</v>
       </c>
       <c r="J6">
-        <v>5.27</v>
+        <v>12.61</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.27</v>
+        <v>12.61</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.27</v>
+        <v>12.61</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4618,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5.27</v>
+        <v>12.61</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -4702,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>5.27</v>
+        <v>12.61</v>
       </c>
       <c r="AV6">
         <v>0</v>
@@ -4713,43 +4716,43 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7">
-        <v>2609</v>
+        <v>2382</v>
       </c>
       <c r="D7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0.01</v>
       </c>
       <c r="J7">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -4758,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -4842,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AV7">
         <v>0</v>
@@ -4856,40 +4859,40 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2656</v>
+        <v>2130</v>
       </c>
       <c r="D8">
-        <v>121</v>
+        <v>1774</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>121</v>
+        <v>1774</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>121</v>
+        <v>1774</v>
       </c>
       <c r="I8">
         <v>0.01</v>
       </c>
       <c r="J8">
-        <v>1.21</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.21</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.21</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -4898,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.21</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -4982,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>1.21</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="AV8">
         <v>0</v>
@@ -4993,43 +4996,43 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>1016</v>
+        <v>2656</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>441</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>90</v>
+        <v>441</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>90</v>
+        <v>441</v>
       </c>
       <c r="I9">
         <v>0.01</v>
       </c>
       <c r="J9">
-        <v>0.9</v>
+        <v>4.41</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9</v>
+        <v>4.41</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9</v>
+        <v>4.41</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -5038,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9</v>
+        <v>4.41</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -5122,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>0.9</v>
+        <v>4.41</v>
       </c>
       <c r="AV9">
         <v>0</v>
@@ -5133,43 +5136,43 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10">
-        <v>1017</v>
+        <v>2392</v>
       </c>
       <c r="D10">
-        <v>420</v>
+        <v>135</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>420</v>
+        <v>135</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>420</v>
+        <v>135</v>
       </c>
       <c r="I10">
         <v>0.01</v>
       </c>
       <c r="J10">
-        <v>4.2</v>
+        <v>1.35</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
+        <v>1.35</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.2</v>
+        <v>1.35</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -5178,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4.2</v>
+        <v>1.35</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5262,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>4.2</v>
+        <v>1.35</v>
       </c>
       <c r="AV10">
         <v>0</v>
@@ -5273,43 +5276,43 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C11">
-        <v>2286</v>
+        <v>2240</v>
       </c>
       <c r="D11">
-        <v>466</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>466</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>466</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>0.01</v>
       </c>
       <c r="J11">
-        <v>4.66</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.66</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.66</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -5318,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4.66</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -5402,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>4.66</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AV11">
         <v>0</v>
@@ -5413,10 +5416,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C12">
-        <v>2103</v>
+        <v>2286</v>
       </c>
       <c r="D12">
         <v>145</v>
@@ -5553,43 +5556,43 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C13">
-        <v>1029</v>
+        <v>2384</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="I13">
         <v>0.01</v>
       </c>
       <c r="J13">
-        <v>0.36</v>
+        <v>2.77</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.36</v>
+        <v>2.77</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.36</v>
+        <v>2.77</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -5598,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.36</v>
+        <v>2.77</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5682,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>0.36</v>
+        <v>2.77</v>
       </c>
       <c r="AV13">
         <v>0</v>
@@ -5693,43 +5696,43 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C14">
-        <v>1030</v>
+        <v>2103</v>
       </c>
       <c r="D14">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I14">
         <v>0.01</v>
       </c>
       <c r="J14">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -5738,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -5822,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="AV14">
         <v>0</v>
@@ -5833,43 +5836,43 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>2230</v>
+        <v>1029</v>
       </c>
       <c r="D15">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="I15">
         <v>0.01</v>
       </c>
       <c r="J15">
-        <v>5.38</v>
+        <v>6.07</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.38</v>
+        <v>6.07</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.38</v>
+        <v>6.07</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -5878,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5.38</v>
+        <v>6.07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5962,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>5.38</v>
+        <v>6.07</v>
       </c>
       <c r="AV15">
         <v>0</v>
@@ -5973,43 +5976,43 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C16">
-        <v>2030</v>
+        <v>1033</v>
       </c>
       <c r="D16">
-        <v>494</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>494</v>
+        <v>105</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>494</v>
+        <v>105</v>
       </c>
       <c r="I16">
         <v>0.01</v>
       </c>
       <c r="J16">
-        <v>4.9400000000000004</v>
+        <v>1.05</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.9400000000000004</v>
+        <v>1.05</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.9400000000000004</v>
+        <v>1.05</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -6018,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4.9400000000000004</v>
+        <v>1.05</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -6102,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>4.9400000000000004</v>
+        <v>1.05</v>
       </c>
       <c r="AV16">
         <v>0</v>
@@ -6113,43 +6116,43 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C17">
-        <v>2160</v>
+        <v>2148</v>
       </c>
       <c r="D17">
-        <v>566</v>
+        <v>118</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>566</v>
+        <v>118</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>566</v>
+        <v>118</v>
       </c>
       <c r="I17">
         <v>0.01</v>
       </c>
       <c r="J17">
-        <v>5.66</v>
+        <v>1.18</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.66</v>
+        <v>1.18</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.66</v>
+        <v>1.18</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -6158,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5.66</v>
+        <v>1.18</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -6242,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>5.66</v>
+        <v>1.18</v>
       </c>
       <c r="AV17">
         <v>0</v>
@@ -6256,40 +6259,40 @@
         <v>111</v>
       </c>
       <c r="C18">
-        <v>2298</v>
+        <v>2716</v>
       </c>
       <c r="D18">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="I18">
         <v>0.01</v>
       </c>
       <c r="J18">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -6298,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -6382,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="AV18">
         <v>0</v>
@@ -6393,43 +6396,43 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C19">
-        <v>2880</v>
+        <v>2030</v>
       </c>
       <c r="D19">
-        <v>599</v>
+        <v>190</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>599</v>
+        <v>190</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>599</v>
+        <v>190</v>
       </c>
       <c r="I19">
         <v>0.01</v>
       </c>
       <c r="J19">
-        <v>5.99</v>
+        <v>1.9</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.99</v>
+        <v>1.9</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.99</v>
+        <v>1.9</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -6438,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5.99</v>
+        <v>1.9</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -6522,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>5.99</v>
+        <v>1.9</v>
       </c>
       <c r="AV19">
         <v>0</v>
@@ -6533,43 +6536,43 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>1044</v>
+        <v>2160</v>
       </c>
       <c r="D20">
-        <v>123</v>
+        <v>692</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>123</v>
+        <v>692</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>123</v>
+        <v>692</v>
       </c>
       <c r="I20">
         <v>0.01</v>
       </c>
       <c r="J20">
-        <v>1.23</v>
+        <v>6.92</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.23</v>
+        <v>6.92</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.23</v>
+        <v>6.92</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -6578,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.23</v>
+        <v>6.92</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6662,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="AU20">
-        <v>1.23</v>
+        <v>6.92</v>
       </c>
       <c r="AV20">
         <v>0</v>
@@ -6672,38 +6675,44 @@
       <c r="A21">
         <v>16</v>
       </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21">
+        <v>2057</v>
+      </c>
       <c r="D21">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I21">
         <v>0.01</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -6712,6 +6721,93 @@
         <v>0</v>
       </c>
       <c r="Q21">
+        <v>0.36</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0.36</v>
+      </c>
+      <c r="AV21">
         <v>0</v>
       </c>
     </row>
@@ -7845,7 +7941,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/STS IR Bot Performer/Data/Output/SC ST 389 tool osv1.xlsx
+++ b/STS IR Bot Performer/Data/Output/SC ST 389 tool osv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin.martinez\Documents\github-IRBot\STS_InternalReviewBot\STS IR Bot Performer\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9251916-CDB1-46AE-BE85-10FE2D382D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F59787-6680-4CCB-91DE-68A7CD3496DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SC ST-389 tool" sheetId="1" r:id="rId1"/>

--- a/STS IR Bot Performer/Data/Output/SC ST 389 tool osv1.xlsx
+++ b/STS IR Bot Performer/Data/Output/SC ST 389 tool osv1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin.martinez\Documents\github-IRBot\STS_InternalReviewBot\STS IR Bot Performer\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F59787-6680-4CCB-91DE-68A7CD3496DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65930C38-A03D-4193-9986-F00DEE19B10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="870" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SC ST-389 tool" sheetId="1" r:id="rId1"/>
